--- a/biology/Zoologie/Faune_des_Comores/Faune_des_Comores.xlsx
+++ b/biology/Zoologie/Faune_des_Comores/Faune_des_Comores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Comores sont un archipel de l'océan Indien qui comporte de nombreuses espèces endémiques et espèces disparues.
 La faune de l’archipel des Comores peut être considérée comme une version appauvrie de la faune de Madagascar bien que des phénomènes évolutifs particuliers s'y soient produits.
@@ -512,14 +524,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les connaissances sur cette faune ont longtemps été très incomplètes. La faune mammalienne est pauvre malgré le nombre de biotopes, du fait de la situation insulaire. Elle est caractérisée néanmoins par la présence de deux espèces de lémuriens et d'une roussette (Pteropus livingstonii) menacée d’extinction (400 individus au monde présents seulement à Anjouan et Mohéli).
 De nombreuses espèces ont disparu. On trouve cependant encore :
 101 espèces d'oiseaux,
 1 106 espèces d'insectes,
 21 espèces de reptiles dont 10 endémiques.
-Parmi celles-ci, 15 espèces sont vulnérables, menacées ou menacées d'extinction selon l'UICN[1] :
+Parmi celles-ci, 15 espèces sont vulnérables, menacées ou menacées d'extinction selon l'UICN :
 papillon grande queue menacée d'extinction,
 Pseusacrea lucretia comoranan
 Eretmochelys imbricata
@@ -556,9 +570,11 @@
           <t>Inventaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un inventaire partiel a été fait en 1870, par A. Gevray, procureur impérial de Pondichéry[2]. Un autre inventaire, bien plus complet, a été publié en 2020 recensant plus de 300 espèces animales terrestres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un inventaire partiel a été fait en 1870, par A. Gevray, procureur impérial de Pondichéry. Un autre inventaire, bien plus complet, a été publié en 2020 recensant plus de 300 espèces animales terrestres.
 La liste présentée ici est non exhaustive et représente les grandes espèces identifiables, sur la base des deux inventaires cités.
 Légende:
 TC: très Commun, C: commun, R: rare.
@@ -592,20 +608,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mammifères terrestres
-C. Maki de Mayotte  (Eulemur fulvus mayottensis ) seulement à Mayotte)
-R. Maki des Comores (menacé, à Anjouan et Mohéli)
+          <t>Mammifères terrestres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>C. Maki de Mayotte  (Eulemur fulvus mayottensis ) seulement à Mayotte)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>R. Maki des Comores (menacé, à Anjouan et Mohéli)
 R. Mangouste indienne
 C. Civette malgache
 Tangue (Tenrec ecaudatus)
 R. Pachyure des Comores (Suncus cf. madagascariensis)
 Chauve-souris, dont : TC. Pteropus seychellensis comoriensis, TC. Roussette de Livingston, TC. Fanihi, C. Taphien de Maurice, C. Tadaride, R. Myotis anjouanensis, R. Mops leucostigma, R. Miniopterus griveaudi, R. Miniopterus aelleni.
 C. Rongeurs sauvages importés : rat noir, souris domestique...
-+ Bétail &amp; animaux de compagnie importés (zébu, chèvre, mouton, âne, chien, chat...).
-Mammifères marins
-dauphins
-baleines
-Dugongs</t>
++ Bétail &amp; animaux de compagnie importés (zébu, chèvre, mouton, âne, chien, chat...).</t>
         </is>
       </c>
     </row>
@@ -630,23 +650,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oiseaux</t>
+          <t>Mammifères</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Voir Liste des espèces d'oiseaux de Mayotte
-de nombreux gallinacés, pigeons
-Autres oiseaux
-Échassiers, C. Crabier, TC. Courlis, C. Chevalier, TC. Courlieu, TR. Flamant, TC. Cul-blanc[Laquelle ?], C. Aigrette, TR. Poule d'eau.
-Le Souimanga de Dussumier (Nectarinia dussumieri) et le drongo de Mayotte (Dicrurus waldenii) sont endémiques du groupe d'îles.
-Palmipède
-R. Sarcelle, C. Goëlon (goéland ?), R. Plongeon, R. Fou, TR. Frégate, TC. Hirondelle de mer
-Rapace
-TC. Papangue, C. Faucon émerillon, R. Buse, TC. Hibou
-Passereaux
-TC. Corneille mantelée, C. Guêpier blanc, C. Saint-Esprit, C. Kirambo, C. Martin-pêcheur, C. Merle, R. Pluvier, C. Huppe, C. Moineau ou C. Linot vivant en famille de 15 à 20 individus, dans un nid en forme de bourse, C. Hirondelle, C. Cardinal, C. Veuve[Laquelle ?], C. Tarin, C. Roitelet, C. Pic
-</t>
+          <t>Mammifères marins</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>dauphins
+baleines
+Dugongs</t>
         </is>
       </c>
     </row>
@@ -671,10 +688,195 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir Liste des espèces d'oiseaux de Mayotte
+de nombreux gallinacés, pigeons
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres oiseaux</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Échassiers, C. Crabier, TC. Courlis, C. Chevalier, TC. Courlieu, TR. Flamant, TC. Cul-blanc[Laquelle ?], C. Aigrette, TR. Poule d'eau.
+Le Souimanga de Dussumier (Nectarinia dussumieri) et le drongo de Mayotte (Dicrurus waldenii) sont endémiques du groupe d'îles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Palmipède</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R. Sarcelle, C. Goëlon (goéland ?), R. Plongeon, R. Fou, TR. Frégate, TC. Hirondelle de mer
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rapace</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TC. Papangue, C. Faucon émerillon, R. Buse, TC. Hibou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Oiseaux</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Passereaux</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TC. Corneille mantelée, C. Guêpier blanc, C. Saint-Esprit, C. Kirambo, C. Martin-pêcheur, C. Merle, R. Pluvier, C. Huppe, C. Moineau ou C. Linot vivant en famille de 15 à 20 individus, dans un nid en forme de bourse, C. Hirondelle, C. Cardinal, C. Veuve[Laquelle ?], C. Tarin, C. Roitelet, C. Pic
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Reptiles et amphibiens</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Batracien
 TC. Tortue franche, à Mayotte et à Mohéli
@@ -687,60 +889,281 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Vie sous marine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>El nino des années 2000 a beaucoup détruit la barrière de corail, d'autre part la surpêche côtière et certaines pratiques (dans l'union des Comores comme la pêche à l'explosif) rendent les fonds moins intéressants. Un Parc Marin a été créé à Mohéli en 1999, en partenariat avec les associations villageoises, pour protéger les tortues vertes. Cette initiative exemplaire a reçu le prix de l'Initiative Équateur par les Nations unies.
-La couverture corallienne est encore relativement bonne aux Comores, même si l'explosion démographique, le développement agricole mal géré, la pollution et la pêche destructives représentent des menaces sérieuses pour cet écosystème fragile[4].
-Poissons des côtes
-Poisson-coffre, Ostracion, Espadon, Diodon, Aiguille, Tétrodon, Loucoudana, Poisson lune[Lequel ?], Requin (rare), Poisson perroquet, Sole, Labre, Phe[Quoi ?], Poisson du corail[Lequel ?], Dorade, Rouget, Thon, Mulet, Congre, Anguille,
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El nino des années 2000 a beaucoup détruit la barrière de corail, d'autre part la surpêche côtière et certaines pratiques (dans l'union des Comores comme la pêche à l'explosif) rendent les fonds moins intéressants. Un Parc Marin a été créé à Mohéli en 1999, en partenariat avec les associations villageoises, pour protéger les tortues vertes. Cette initiative exemplaire a reçu le prix de l'Initiative Équateur par les Nations unies.
+La couverture corallienne est encore relativement bonne aux Comores, même si l'explosion démographique, le développement agricole mal géré, la pollution et la pêche destructives représentent des menaces sérieuses pour cet écosystème fragile.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vie sous marine</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Poissons des côtes</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Poisson-coffre, Ostracion, Espadon, Diodon, Aiguille, Tétrodon, Loucoudana, Poisson lune[Lequel ?], Requin (rare), Poisson perroquet, Sole, Labre, Phe[Quoi ?], Poisson du corail[Lequel ?], Dorade, Rouget, Thon, Mulet, Congre, Anguille,
 Cabot, Gourami, Seare, Poisson blanc[Lequel ?].
 En 1870, les rivières étaient pleines d'anguilles énormes ; on trouvait dans quelques-unes des gouramis et des poissons blancs.
-Crustacés
-Crabes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vie sous marine</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Crustacés</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Crabes
 Crabe de cocotier
 Pagures
 Autre
-Camarons, Gécarcins, Langoustes, Cloportes
-Mollusques
-Une étude de 2013 a recensé 23 espèces de mollusques terrestres (escargots et limaces) pour la seule Mayotte[5] ; le recensement de 2020 compte 12 espèces relativement communes sur l'ensemble de l'archipel.
-Bivalves (tous marins)
-Bénitiers, que les portugais venaient chercher au XVIe siècle aux Comores
+Camarons, Gécarcins, Langoustes, Cloportes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vie sous marine</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude de 2013 a recensé 23 espèces de mollusques terrestres (escargots et limaces) pour la seule Mayotte ; le recensement de 2020 compte 12 espèces relativement communes sur l'ensemble de l'archipel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vie sous marine</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bivalves (tous marins)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bénitiers, que les portugais venaient chercher au XVIe siècle aux Comores
 huîtres (Saccostrea cucullata, Hyotissa hyotis, Lopha cristagalli, Pteria penguin, R. Pinctada margaritifera...)
 spondyles
-Moules
-Gastéropodes
-Gastéropodes terrestres
+Moules</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vie sous marine</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Gastéropodes</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Gastéropodes terrestres
 Lissachatina fulica - Escargot géant africain, carnivore et invasif
 Gastéropodes marins
 Porcelaines
 Strombes
-Cônes
-Céphalopodes (tous marins)
-Poulpes ou « pwedza » (TC. Octopus cyanea, C. Callistoctopus macropus, R. Abdopus sp.)
+Cônes</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vie sous marine</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mollusques</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Céphalopodes (tous marins)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Poulpes ou « pwedza » (TC. Octopus cyanea, C. Callistoctopus macropus, R. Abdopus sp.)
 Calmars (TC. Sepioteuthis lessoniana)
 Seiches (R. Sepia pharaonis)
 Sépioles (R. Euprymna sp.)
@@ -748,62 +1171,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Insectes</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t xml:space="preserve">Coléoptères, Névroptères, Hyménoptères, Lépidoptères, Hémiptères, Diptères
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Autre</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Arachnides
 Nephila comorana
@@ -811,31 +1238,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Faune_des_Comores</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>La Faune terrestre de l'archipel des Comores (Michel Louette, Danny Meirte et Rudy Jocque, Éditions Du Mrac, 2004, 455p)
 Les visiteurs des rivages (Pierre Huguet, Éditions du Baobab, 2004, 51p)
